--- a/biology/Botanique/Graminidites_ulkapites/Graminidites_ulkapites.xlsx
+++ b/biology/Botanique/Graminidites_ulkapites/Graminidites_ulkapites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Graminidites ulkapites est une espèce éteinte de graminées (Poaceae) fossiles, décrite en 2011. Cette espèce nouvelle correspond à des grains de pollen découverts dans des sédiments du Maastrichtien de la formation de Scollard dans l'Alberta au Canada. L'étude de ce pollen en microscopie électronique a montré qu'il ne pouvait être rattaché à des espèces fossiles précédemment décrites, ni à des espèces existantes de graminées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Graminidites ulkapites est une espèce éteinte de graminées (Poaceae) fossiles, décrite en 2011. Cette espèce nouvelle correspond à des grains de pollen découverts dans des sédiments du Maastrichtien de la formation de Scollard dans l'Alberta au Canada. L'étude de ce pollen en microscopie électronique a montré qu'il ne pouvait être rattaché à des espèces fossiles précédemment décrites, ni à des espèces existantes de graminées.
 Étymologie
-l'épithète spécifique, ulkapites, est formée d'un terme sanscrit, ulka signifiant « météorite » ou « étoile filante », en référence à la forme du pollen, et du suffixe -pites[1].</t>
+l'épithète spécifique, ulkapites, est formée d'un terme sanscrit, ulka signifiant « météorite » ou « étoile filante », en référence à la forme du pollen, et du suffixe -pites.</t>
         </is>
       </c>
     </row>
